--- a/docs/ST3/ST3_02.08.24_output.xlsx
+++ b/docs/ST3/ST3_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731673141.8315063</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731673146.9517398</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673141.8315063.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673146.9517398.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>286.87</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>285.31</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.560000000000002</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731673148.577627</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731673155.4353144</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673148.577627.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673155.4353144.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>285.58</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>284.52</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.060000000000002</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731673156.7365658</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731673160.3536756</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673156.7365658.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673160.3536756.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>284.96</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>286.84</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-1.879999999999995</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.66</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731673182.7029634</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731673184.1883712</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673182.7029634.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673184.1883712.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>131.27</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>130.84</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.4300000000000068</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731673186.7645183</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731673195.7921352</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673186.7645183.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673195.7921352.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>130.67</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>131.53</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.8600000000000136</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.66</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731673206.7970593</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731673216.2847998</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731673206.7970593.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731673216.2847998.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6677.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6624</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>53.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731673218.3566213</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731673225.2269337</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731673218.3566213.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731673225.2269337.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6622.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6634.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-12</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731673250.1818972</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731673253.1467772</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731673250.1818972.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731673253.1467772.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>505.6</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>505.9</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.2999999999999545</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731673265.6802843</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731673269.2402468</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731673265.6802843.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731673269.2402468.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>229.07</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>228.11</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.9599999999999795</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731673271.8448353</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731673274.7284713</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731673271.8448353.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731673274.7284713.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>228.54</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>228.1</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731673276.2323112</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731673281.0252347</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731673276.2323112.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731673281.0252347.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>227.94</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>228.52</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.5800000000000125</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -1111,95 +1193,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731673294.7980635</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731673294.7980635.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+          <t>./test_images/MOEX1731673294.7980635.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>230.12</v>
       </c>
-      <c r="J14" t="n">
-        <v>230.12</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>230.16</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731673304.1470582</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731673305.9728982</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673304.1470582.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673305.9728982.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1026.6</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1022.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>3.999999999999886</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731673311.8324142</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731673315.453614</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673311.8324142.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673315.453614.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1021.6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1024.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-2.999999999999886</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731673324.02502</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731673325.9685712</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673324.02502.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673325.9685712.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1018.2</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1021</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-2.799999999999955</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731673340.08185</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731673341.5696685</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731673340.08185.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731673341.5696685.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>127.88</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>127.54</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.3399999999999892</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1363,95 +1475,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731673389.880984</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731673389.880984.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+          <t>./test_images/NLMK1731673389.880984.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>165.04</v>
       </c>
-      <c r="J19" t="n">
-        <v>165.04</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>165.7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.6599999999999966</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731673392.4988854</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731673397.4324903</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731673392.4988854.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731673397.4324903.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>50.53</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>50.38</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731673399.4528697</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731673403.272964</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731673399.4528697.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731673403.272964.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>50.425</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>50.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1511,95 +1641,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731673423.0426555</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731673423.0426555.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731673423.0426555.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>50.405</v>
       </c>
-      <c r="J22" t="n">
-        <v>50.405</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>50.39</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.01500000000000057</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731673424.8909779</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731673428.9172947</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673424.8909779.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673428.9172947.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1409.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1405</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>4.400000000000091</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1607,51 +1749,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731673432.8197775</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731673434.9449396</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673432.8197775.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673434.9449396.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1406.2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1403</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1659,51 +1807,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731673436.4227405</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731673439.7879133</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673436.4227405.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673439.7879133.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1405</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1395.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>9.799999999999955</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -1711,51 +1865,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731673440.8677585</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731673444.574728</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673440.8677585.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673444.574728.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1400.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1406.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-5.400000000000091</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -1763,51 +1923,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731673449.3438768</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731673453.9666648</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673449.3438768.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673453.9666648.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1399.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1405.4</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-5.600000000000136</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -1815,43 +1981,49 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731673453.9822044</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731673453.9822044.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731673453.9822044.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1405.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1405.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1859,51 +2031,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731673457.9839878</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731673462.191249</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731673457.9839878.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731673462.191249.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>60.86</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>60.65</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.2100000000000009</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -1911,51 +2089,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731673515.651099</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731673516.8606834</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/SELG1731673515.651099.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/SELG1731673516.8606834.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>56.78</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>56.88</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.1000000000000014</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -1963,95 +2147,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731673519.1027594</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731673519.1027594.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731673519.1027594.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>57.05</v>
       </c>
-      <c r="J31" t="n">
-        <v>57.05</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>57.13</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0800000000000054</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731673539.6541069</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731673544.035278</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731673539.6541069.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731673544.035278.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>145.36</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>144.5</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.8600000000000136</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.59</v>
       </c>
     </row>
@@ -2059,51 +2255,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731673556.9842122</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731673559.9537833</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731673556.9842122.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731673559.9537833.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>20.743</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>20.626</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1169999999999973</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -2111,51 +2313,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731673580.774154</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731673584.2618537</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673580.774154.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673584.2618537.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>677.55</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>674.25</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>3.299999999999955</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -2163,51 +2371,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731673586.7652023</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731673590.0732255</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673586.7652023.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673590.0732255.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>674.05</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>672.1</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>1.949999999999932</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2215,51 +2429,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731673597.4257624</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731673602.402998</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673597.4257624.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673602.402998.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>666.25</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>672.1</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-5.850000000000023</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.88</v>
       </c>
     </row>
@@ -2267,95 +2487,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731673608.9592094</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731673608.9592094.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731673608.9592094.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>676.45</v>
       </c>
-      <c r="J37" t="n">
-        <v>676.45</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>677.45</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731673609.8021526</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731673610.152345</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673609.8021526.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673610.152345.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>0.09926000000000001</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.0006200000000000094</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -2363,51 +2595,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731673610.8038695</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731673613.5736713</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673610.8038695.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673613.5736713.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>0.09914000000000001</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>0.09942000000000001</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.0002800000000000025</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -2415,51 +2653,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731673617.8028312</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731673619.9384117</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673617.8028312.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673619.9384117.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>0.10036</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>0.09978000000000001</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.0005799999999999972</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -2467,51 +2711,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731673623.7627625</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731673629.884162</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673623.7627625.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673629.884162.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>0.09952000000000001</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.09894000000000001</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.0005799999999999972</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -2519,51 +2769,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731673635.5290654</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731673637.364507</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673635.5290654.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673637.364507.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>0.09888000000000001</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>0.09906000000000001</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.0001799999999999996</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2571,51 +2827,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731673640.9289339</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731673644.9682205</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731673640.9289339.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731673644.9682205.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>0.5998</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>0.5965</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.00329999999999997</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -2623,51 +2885,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731673666.2361338</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731673668.0425732</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673666.2361338.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673668.0425732.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>2992.95</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>2993.75</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.8000000000001819</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2675,51 +2943,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731673669.8456945</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731673670.9582152</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673669.8456945.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673670.9582152.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>2989.45</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>2984.05</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>5.399999999999636</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2727,51 +3001,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731673671.3153505</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731673671.7662375</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673671.3153505.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673671.7662375.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>2984.1</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>2975.95</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>8.150000000000091</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2779,51 +3059,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731673672.46855</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731673674.6480637</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673672.46855.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673674.6480637.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>2973.95</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>2972.35</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2831,51 +3117,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731673678.4952233</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731673679.606501</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673678.4952233.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673679.606501.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>2962.35</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>2961.2</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>1.150000000000091</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2883,51 +3175,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731673680.9954126</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731673681.8358047</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673680.9954126.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673681.8358047.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>2960</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>2959.35</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.6500000000000909</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2935,51 +3233,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731673684.6906402</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731673685.1261463</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673684.6906402.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673685.1261463.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>2970.3</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>2980.95</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>10.64999999999964</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2987,51 +3291,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731673685.7354412</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731673689.1985245</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673685.7354412.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673689.1985245.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>2980.4</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>2958.1</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-22.30000000000018</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.75</v>
       </c>
     </row>
@@ -3039,51 +3349,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731673705.2827172</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731673709.1728296</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731673705.2827172.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731673709.1728296.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>34.24</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>34.095</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1450000000000031</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -3211,19 +3527,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6000000000001364</v>
+        <v>0.3999999999998636</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1500000000000341</v>
+        <v>0.09999999999996589</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1000000000000001</v>
+        <v>0.04999999999999991</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -3233,19 +3549,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8199999999999648</v>
+        <v>0.7799999999999727</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2049999999999912</v>
+        <v>0.1949999999999932</v>
       </c>
       <c r="E6" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -3255,19 +3571,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1749999999999972</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05833333333333238</v>
+        <v>0.0533333333333322</v>
       </c>
       <c r="E7" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="F7" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8">
@@ -3365,19 +3681,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1000000000000014</v>
+        <v>-0.01999999999999602</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.05000000000000071</v>
+        <v>-0.00999999999999801</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.18</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.09</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="13">
@@ -3475,19 +3791,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.6599999999999966</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.6599999999999966</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="18">
